--- a/Excel Exercise Solutions.xlsx
+++ b/Excel Exercise Solutions.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="19095" windowHeight="8445"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="19095" windowHeight="8445" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="School Shopping" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="School Shopping List" sheetId="1" r:id="rId1"/>
+    <sheet name="Cat or Dog" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t>Items</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Liquid Paper</t>
   </si>
   <si>
-    <t>Excel Shopping List Practice Exercise by Vincent</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -91,6 +88,72 @@
   </si>
   <si>
     <t>Tim's Shopping List and Prices at each store</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>1.  Excel Shopping List Practice Exercise by Vincent</t>
+  </si>
+  <si>
+    <t>2.   Excel Cat and Dog Practice Exercise by Vincent</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Adoption fee</t>
+  </si>
+  <si>
+    <t>Accessories List</t>
+  </si>
+  <si>
+    <t>Collar</t>
+  </si>
+  <si>
+    <t>Small ID Tag</t>
+  </si>
+  <si>
+    <t>Food and Water Bowl</t>
+  </si>
+  <si>
+    <t>Collar (large)</t>
+  </si>
+  <si>
+    <t>Large ID Tag</t>
+  </si>
+  <si>
+    <t>Leash</t>
+  </si>
+  <si>
+    <t>Box of Cat food</t>
+  </si>
+  <si>
+    <t>Kitty Litter</t>
+  </si>
+  <si>
+    <t>Bag of dog Food</t>
+  </si>
+  <si>
+    <t>Dog treats</t>
+  </si>
+  <si>
+    <t>Supplies List For 12 months</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Humane Society Pet Adoption</t>
+  </si>
+  <si>
+    <t>Total in 12 Months</t>
+  </si>
+  <si>
+    <t>Overall Expenses for each Pet</t>
   </si>
 </sst>
 </file>
@@ -146,7 +209,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +252,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -203,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -211,13 +298,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -249,7 +347,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'School Shopping'!$I$4:$K$4</c:f>
+              <c:f>'School Shopping List'!$I$4:$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -266,7 +364,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'School Shopping'!$I$21:$K$21</c:f>
+              <c:f>'School Shopping List'!$I$21:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
@@ -283,24 +381,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84997632"/>
-        <c:axId val="84999168"/>
+        <c:axId val="78544256"/>
+        <c:axId val="87201664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84997632"/>
+        <c:axId val="78544256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84999168"/>
+        <c:crossAx val="87201664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84999168"/>
+        <c:axId val="87201664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -308,7 +406,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84997632"/>
+        <c:crossAx val="78544256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -321,7 +419,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -348,7 +446,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'School Shopping'!$O$4:$Q$4</c:f>
+              <c:f>'School Shopping List'!$O$4:$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -365,7 +463,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'School Shopping'!$O$21:$Q$21</c:f>
+              <c:f>'School Shopping List'!$O$21:$Q$21</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
@@ -382,24 +480,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="106127360"/>
-        <c:axId val="106132608"/>
+        <c:axId val="96429952"/>
+        <c:axId val="96431488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106127360"/>
+        <c:axId val="96429952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106132608"/>
+        <c:crossAx val="96431488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106132608"/>
+        <c:axId val="96431488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,7 +505,93 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106127360"/>
+        <c:crossAx val="96429952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cat or Dog'!$D$4:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Cat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cat or Dog'!$D$29:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>559.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="49868160"/>
+        <c:axId val="49853568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="49868160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49853568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49853568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49868160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -483,6 +667,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -778,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -800,35 +1019,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="19.5">
-      <c r="A1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="A1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="M3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="M3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
@@ -847,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>1</v>
@@ -862,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>1</v>
@@ -893,15 +1112,15 @@
       <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="7">
         <f>H5*B5</f>
         <v>1.5</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="7">
         <f>H5*C5</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="7">
         <f>H5*D5</f>
         <v>4.1999999999999993</v>
       </c>
@@ -911,15 +1130,15 @@
       <c r="N5">
         <v>5</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="7">
         <f>N5*B5</f>
         <v>2.5</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="7">
         <f>N5*C5</f>
         <v>2</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="7">
         <f>N5*D5</f>
         <v>7</v>
       </c>
@@ -943,15 +1162,15 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="10">
-        <f t="shared" ref="I6:J19" si="0">H6*B6</f>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I19" si="0">H6*B6</f>
         <v>28</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="7">
         <f t="shared" ref="J6:J19" si="1">H6*C6</f>
         <v>33</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="7">
         <f t="shared" ref="K6:K19" si="2">H6*D6</f>
         <v>31</v>
       </c>
@@ -961,15 +1180,15 @@
       <c r="N6">
         <v>1</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="7">
         <f t="shared" ref="O6:O19" si="3">N6*B6</f>
         <v>28</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="7">
         <f t="shared" ref="P6:P19" si="4">N6*C6</f>
         <v>33</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="7">
         <f t="shared" ref="Q6:Q19" si="5">N6*D6</f>
         <v>31</v>
       </c>
@@ -993,15 +1212,15 @@
       <c r="H7">
         <v>7</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="7">
         <f t="shared" si="0"/>
         <v>12.6</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="7">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -1011,15 +1230,15 @@
       <c r="N7">
         <v>4</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="7">
         <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="7">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="7">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -1043,15 +1262,15 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="7">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="7">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="7">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
@@ -1061,15 +1280,15 @@
       <c r="N8">
         <v>2</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="7">
         <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="7">
         <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="7">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -1093,15 +1312,15 @@
       <c r="H9">
         <v>2</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="7">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="7">
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="7">
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
@@ -1111,15 +1330,15 @@
       <c r="N9">
         <v>2</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="7">
         <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="7">
         <f t="shared" si="4"/>
         <v>2.8</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="7">
         <f t="shared" si="5"/>
         <v>4.8</v>
       </c>
@@ -1143,15 +1362,15 @@
       <c r="H10">
         <v>2</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="7">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="7">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="7">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
@@ -1161,15 +1380,15 @@
       <c r="N10">
         <v>2</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="7">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="7">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="7">
         <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
@@ -1193,15 +1412,15 @@
       <c r="H11">
         <v>10</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="7">
         <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="7">
         <f t="shared" si="1"/>
         <v>5.8999999999999995</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="7">
         <f t="shared" si="2"/>
         <v>25.9</v>
       </c>
@@ -1211,15 +1430,15 @@
       <c r="N11">
         <v>10</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="7">
         <f t="shared" si="3"/>
         <v>9.9</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="7">
         <f t="shared" si="4"/>
         <v>5.8999999999999995</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="7">
         <f t="shared" si="5"/>
         <v>25.9</v>
       </c>
@@ -1243,15 +1462,15 @@
       <c r="H12">
         <v>4</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="7">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="7">
         <f t="shared" si="2"/>
         <v>8.6</v>
       </c>
@@ -1261,15 +1480,15 @@
       <c r="N12">
         <v>1</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="7">
         <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="7">
         <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="7">
         <f t="shared" si="5"/>
         <v>2.15</v>
       </c>
@@ -1293,15 +1512,15 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="7">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="7">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="7">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -1311,15 +1530,15 @@
       <c r="N13">
         <v>1</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="7">
         <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="7">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="7">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
@@ -1343,15 +1562,15 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="7">
         <f t="shared" si="0"/>
         <v>4.55</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="7">
         <f t="shared" si="1"/>
         <v>2.5499999999999998</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -1361,15 +1580,15 @@
       <c r="N14">
         <v>1</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="7">
         <f t="shared" si="3"/>
         <v>4.55</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="7">
         <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="7">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -1393,15 +1612,15 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="7">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="7">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -1411,15 +1630,15 @@
       <c r="N15">
         <v>2</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="7">
         <f t="shared" si="3"/>
         <v>8.4</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="7">
         <f t="shared" si="4"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="7">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -1443,15 +1662,15 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="7">
         <f t="shared" si="0"/>
         <v>3.9</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -1461,15 +1680,15 @@
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1493,15 +1712,15 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -1511,15 +1730,15 @@
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1543,15 +1762,15 @@
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="7">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -1561,15 +1780,15 @@
       <c r="N18">
         <v>0</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1593,15 +1812,15 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -1611,47 +1830,47 @@
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="H21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="12">
+      <c r="H21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="9">
         <f>SUM(I5:I19)</f>
         <v>91.7</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="9">
         <f t="shared" ref="J21:K21" si="6">SUM(J5:J19)</f>
         <v>92.85</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="9">
         <f t="shared" si="6"/>
         <v>126.6</v>
       </c>
-      <c r="N21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" s="12">
+      <c r="N21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="9">
         <f>SUM(O5:O19)</f>
         <v>80.3</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="9">
         <f t="shared" ref="P21:Q21" si="7">SUM(P5:P19)</f>
         <v>73.899999999999991</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="9">
         <f t="shared" si="7"/>
         <v>108.45</v>
       </c>
@@ -1671,13 +1890,337 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="17">
+        <v>90</v>
+      </c>
+      <c r="E5" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <f>B10*C10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" ref="D11:D12" si="0">B11*C11</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <f>C13*B13</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" ref="E14:E16" si="1">C14*B14</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="5">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9">
+        <f>SUM(B10:B12)</f>
+        <v>13.5</v>
+      </c>
+      <c r="E17" s="9">
+        <f>SUM(B13:B16)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="C19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="5">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <f>B21*C21</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="5">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7">
+        <f>B22*C22</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="5">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7">
+        <f>B23*C23</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
+        <f>B24*C24</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="D25" s="9">
+        <f>SUM(D21:D22)</f>
+        <v>38</v>
+      </c>
+      <c r="E25" s="9">
+        <f>SUM(E23:E24)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9">
+        <f>D25*12</f>
+        <v>456</v>
+      </c>
+      <c r="E26" s="9">
+        <f>E25*12</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20">
+        <f>SUM(D5,D17,D26)</f>
+        <v>559.5</v>
+      </c>
+      <c r="E29" s="20">
+        <f>SUM(E5,E17,E26)</f>
+        <v>644</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A29:B29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
